--- a/proj5/results.xlsx
+++ b/proj5/results.xlsx
@@ -2,21 +2,70 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9778B195-6F30-4E8F-AF6C-D29AF1DB7B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC587F-F603-4B8E-9600-2F490945458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="1740" windowWidth="34560" windowHeight="18456" xr2:uid="{D50E9C5D-2F20-4E6F-B024-A39412A4A2E4}"/>
+    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{D50E9C5D-2F20-4E6F-B024-A39412A4A2E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>NUMTRIALS</t>
+  </si>
+  <si>
+    <t>BLOCKSIZE</t>
+  </si>
+  <si>
+    <t>megaTrialsPerSecond</t>
+  </si>
+  <si>
+    <t>Sum of megaTrialsPerSecond</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Blocksize</t>
+  </si>
+  <si>
+    <t>Numtrials</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -157,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +386,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -498,8 +565,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -556,6 +643,3724 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Performance vs. Number of Trials</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.4678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.719799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.01049999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>327.10430000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>922.62639999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1149.4317000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212.6190999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7907999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.510599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.84989999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>508.0625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1508.9335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3213.8092000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3270.7492999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.6342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.7193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496.96679999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1546.5358000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4295.1893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4087.0596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.335900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.2475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>735.89649999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2070.2552000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4450.3599000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6194.3292000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.550599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.252099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.5214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>699.93169999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1766.2786000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3612.7894999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6148.4192000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89661568"/>
+        <c:axId val="89635168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89661568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>NumTrials</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89635168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89635168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>megaTrialsPerSecond</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.448883976337394E-2"/>
+              <c:y val="0.28939314204162159"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89661568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88061196034979872"/>
+          <c:y val="0.40324587362792652"/>
+          <c:w val="9.0410360123453395E-2"/>
+          <c:h val="0.29008046466149295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Performance vs. BlockSize</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.4678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7907999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.335900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.550599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.719799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.510599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.252099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>112.01049999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.84989999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.7193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.5214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>327.10430000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496.96679999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>735.89649999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>699.93169999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>922.62639999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1508.9335000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1546.5358000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2070.2552000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1766.2786000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6997-4C75-97D3-0379C9D6CC36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$16:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1149.4317000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3213.8092000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4295.1893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4450.3599000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3612.7894999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2631-4E2B-9001-95D231A0E558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$16:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1212.6190999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3270.7492999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4087.0596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6194.3292000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6148.4192000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2631-4E2B-9001-95D231A0E558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89661568"/>
+        <c:axId val="89635168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89661568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>BlockSize</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89635168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89635168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>megaTrialsPerSecond</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.448883976337394E-2"/>
+              <c:y val="0.28939314204162159"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89661568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8599136178306932"/>
+          <c:y val="0.25541330855831718"/>
+          <c:w val="0.12816413687830205"/>
+          <c:h val="0.40611265052609008"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>205409</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13253</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1953C0-EF8E-04F0-0B54-756DB3A6057F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>218662</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26506</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BB0FA8-96F0-4631-F29F-F97F0F943FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85853</cdr:x>
+      <cdr:y>0.6574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99784</cdr:x>
+      <cdr:y>0.75067</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E64A52D-145D-4883-CF21-6DD52D4CB05E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5267740" y="2428460"/>
+          <a:ext cx="854765" cy="344557"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85421</cdr:x>
+      <cdr:y>0.68072</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99352</cdr:x>
+      <cdr:y>0.7435</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE341829-370C-924F-29CD-02C42317BB19}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5241236" y="2514600"/>
+          <a:ext cx="854765" cy="231913"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BlockSize</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85853</cdr:x>
+      <cdr:y>0.6574</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99784</cdr:x>
+      <cdr:y>0.75067</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E64A52D-145D-4883-CF21-6DD52D4CB05E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5267740" y="2428460"/>
+          <a:ext cx="854765" cy="344557"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85421</cdr:x>
+      <cdr:y>0.68072</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99352</cdr:x>
+      <cdr:y>0.7435</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE341829-370C-924F-29CD-02C42317BB19}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5241236" y="2514600"/>
+          <a:ext cx="854765" cy="231913"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NumTrials</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vinnie Lee" refreshedDate="45425.538651388888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{3B510A25-6BF3-4EDF-83A1-A7472CA31DE8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C36" sheet="results"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="NUMTRIALS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1024" maxValue="2097152" count="7">
+        <n v="1024"/>
+        <n v="4096"/>
+        <n v="16384"/>
+        <n v="65536"/>
+        <n v="262144"/>
+        <n v="1048576"/>
+        <n v="2097152"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BLOCKSIZE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="256" count="5">
+        <n v="8"/>
+        <n v="32"/>
+        <n v="64"/>
+        <n v="128"/>
+        <n v="256"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="megaTrialsPerSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.7907999999999999" maxValue="6194.3292000000001"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.4678"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5.7907999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10.688000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10.335900000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="10.550599999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="32.719799999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="34.510599999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="36.6342"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="45.944000000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="34.252099999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="112.01049999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="162.84989999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="193.7193"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="153.2475"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="135.5214"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="327.10430000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="508.0625"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="496.96679999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="735.89649999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="699.93169999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="922.62639999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1508.9335000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1546.5358000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="2070.2552000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1766.2786000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1149.4317000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="3213.8092000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="4295.1893"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="4450.3599000000004"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="3612.7894999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1212.6190999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="3270.7492999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="4087.0596"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="6194.3292000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="6148.4192000000003"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AFAAC9F-3A1A-4029-A915-F1D1F2BFF209}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C3:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of megaTrialsPerSecond" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,501 +4679,826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DEE34-3407-4504-8A09-0B20A2C2D8F0}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545AFA47-BD06-48B5-8883-53838AAE6F03}">
+  <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>1024</v>
       </c>
-      <c r="B1">
+      <c r="E4">
+        <v>4096</v>
+      </c>
+      <c r="F4">
+        <v>16384</v>
+      </c>
+      <c r="G4">
+        <v>65536</v>
+      </c>
+      <c r="H4">
+        <v>262144</v>
+      </c>
+      <c r="I4">
+        <v>1048576</v>
+      </c>
+      <c r="J4">
+        <v>2097152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
         <v>8</v>
       </c>
-      <c r="C1">
+      <c r="D5" s="1">
         <v>10.4678</v>
       </c>
-      <c r="D1">
-        <v>84.57</v>
+      <c r="E5" s="1">
+        <v>32.719799999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>112.01049999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>327.10430000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>922.62639999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1149.4317000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1212.6190999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3766.9796000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.7907999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>34.510599999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>162.84989999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>508.0625</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1508.9335000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3213.8092000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3270.7492999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8704.7057999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10.688000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>36.6342</v>
+      </c>
+      <c r="F7" s="1">
+        <v>193.7193</v>
+      </c>
+      <c r="G7" s="1">
+        <v>496.96679999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1546.5358000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4295.1893</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4087.0596</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10666.793</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>128</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.335900000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45.944000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>153.2475</v>
+      </c>
+      <c r="G8" s="1">
+        <v>735.89649999999995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2070.2552000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4450.3599000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6194.3292000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13660.368200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>256</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.550599999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34.252099999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>135.5214</v>
+      </c>
+      <c r="G9" s="1">
+        <v>699.93169999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1766.2786000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3612.7894999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6148.4192000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>12407.7431</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>47.833100000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>184.0607</v>
+      </c>
+      <c r="F10" s="1">
+        <v>757.34859999999992</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2767.9618</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7814.6295000000009</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16721.579600000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>20913.1764</v>
+      </c>
+      <c r="K10" s="1">
+        <v>49206.589700000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4096</v>
+      </c>
+      <c r="F15" s="6">
+        <v>16384</v>
+      </c>
+      <c r="G15" s="6">
+        <v>65536</v>
+      </c>
+      <c r="H15" s="6">
+        <v>262144</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1048576</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>10.4678</v>
+      </c>
+      <c r="E16">
+        <v>32.719799999999999</v>
+      </c>
+      <c r="F16">
+        <v>112.01049999999999</v>
+      </c>
+      <c r="G16">
+        <v>327.10430000000002</v>
+      </c>
+      <c r="H16">
+        <v>922.62639999999999</v>
+      </c>
+      <c r="I16">
+        <v>1149.4317000000001</v>
+      </c>
+      <c r="J16">
+        <v>1212.6190999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>5.7907999999999999</v>
+      </c>
+      <c r="E17">
+        <v>34.510599999999997</v>
+      </c>
+      <c r="F17">
+        <v>162.84989999999999</v>
+      </c>
+      <c r="G17">
+        <v>508.0625</v>
+      </c>
+      <c r="H17">
+        <v>1508.9335000000001</v>
+      </c>
+      <c r="I17">
+        <v>3213.8092000000001</v>
+      </c>
+      <c r="J17">
+        <v>3270.7492999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>10.688000000000001</v>
+      </c>
+      <c r="E18">
+        <v>36.6342</v>
+      </c>
+      <c r="F18">
+        <v>193.7193</v>
+      </c>
+      <c r="G18">
+        <v>496.96679999999998</v>
+      </c>
+      <c r="H18">
+        <v>1546.5358000000001</v>
+      </c>
+      <c r="I18">
+        <v>4295.1893</v>
+      </c>
+      <c r="J18">
+        <v>4087.0596</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>10.335900000000001</v>
+      </c>
+      <c r="E19">
+        <v>45.944000000000003</v>
+      </c>
+      <c r="F19">
+        <v>153.2475</v>
+      </c>
+      <c r="G19">
+        <v>735.89649999999995</v>
+      </c>
+      <c r="H19">
+        <v>2070.2552000000001</v>
+      </c>
+      <c r="I19">
+        <v>4450.3599000000004</v>
+      </c>
+      <c r="J19">
+        <v>6194.3292000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
+        <v>256</v>
+      </c>
+      <c r="D20">
+        <v>10.550599999999999</v>
+      </c>
+      <c r="E20">
+        <v>34.252099999999999</v>
+      </c>
+      <c r="F20">
+        <v>135.5214</v>
+      </c>
+      <c r="G20">
+        <v>699.93169999999998</v>
+      </c>
+      <c r="H20">
+        <v>1766.2786000000001</v>
+      </c>
+      <c r="I20">
+        <v>3612.7894999999999</v>
+      </c>
+      <c r="J20">
+        <v>6148.4192000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B16:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DEE34-3407-4504-8A09-0B20A2C2D8F0}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1024</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>5.7907999999999999</v>
-      </c>
-      <c r="D2">
-        <v>84.77</v>
+        <v>10.4678</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>10.688000000000001</v>
-      </c>
-      <c r="D3">
-        <v>83.4</v>
+        <v>5.7907999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1024</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>10.335900000000001</v>
-      </c>
-      <c r="D4">
-        <v>85.74</v>
+        <v>10.688000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1024</v>
       </c>
       <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>10.335900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1024</v>
+      </c>
+      <c r="B6">
         <v>256</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>10.550599999999999</v>
       </c>
-      <c r="D5">
-        <v>81.540000000000006</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4096</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>32.719799999999999</v>
-      </c>
-      <c r="D6">
-        <v>83.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4096</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>34.510599999999997</v>
-      </c>
-      <c r="D7">
-        <v>84.13</v>
+        <v>32.719799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4096</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>36.6342</v>
-      </c>
-      <c r="D8">
-        <v>83.81</v>
+        <v>34.510599999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4096</v>
       </c>
       <c r="B9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>45.944000000000003</v>
-      </c>
-      <c r="D9">
-        <v>82.98</v>
+        <v>36.6342</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4096</v>
       </c>
       <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>45.944000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4096</v>
+      </c>
+      <c r="B11">
         <v>256</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>34.252099999999999</v>
       </c>
-      <c r="D10">
-        <v>84.38</v>
-      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>16384</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>112.01049999999999</v>
-      </c>
-      <c r="D11">
-        <v>83.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16384</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>162.84989999999999</v>
-      </c>
-      <c r="D12">
-        <v>83.4</v>
+        <v>112.01049999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16384</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>193.7193</v>
-      </c>
-      <c r="D13">
-        <v>83.61</v>
+        <v>162.84989999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16384</v>
       </c>
       <c r="B14">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C14">
-        <v>153.2475</v>
-      </c>
-      <c r="D14">
-        <v>84.24</v>
+        <v>193.7193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16384</v>
       </c>
       <c r="B15">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>153.2475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
         <v>256</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>135.5214</v>
       </c>
-      <c r="D15">
-        <v>83.89</v>
-      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>65536</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>327.10430000000002</v>
-      </c>
-      <c r="D16">
-        <v>84.07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>65536</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>508.0625</v>
-      </c>
-      <c r="D17">
-        <v>84.15</v>
+        <v>327.10430000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>65536</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>496.96679999999998</v>
-      </c>
-      <c r="D18">
-        <v>83.93</v>
+        <v>508.0625</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>65536</v>
       </c>
       <c r="B19">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>735.89649999999995</v>
-      </c>
-      <c r="D19">
-        <v>84.05</v>
+        <v>496.96679999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>65536</v>
       </c>
       <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>735.89649999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>65536</v>
+      </c>
+      <c r="B21">
         <v>256</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>699.93169999999998</v>
       </c>
-      <c r="D20">
-        <v>83.58</v>
-      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>262144</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>922.62639999999999</v>
-      </c>
-      <c r="D21">
-        <v>83.78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>262144</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>1508.9335000000001</v>
-      </c>
-      <c r="D22">
-        <v>83.74</v>
+        <v>922.62639999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>262144</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>1546.5358000000001</v>
-      </c>
-      <c r="D23">
-        <v>83.88</v>
+        <v>1508.9335000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>262144</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C24">
-        <v>2070.2552000000001</v>
-      </c>
-      <c r="D24">
-        <v>83.7</v>
+        <v>1546.5358000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>262144</v>
       </c>
       <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>2070.2552000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>262144</v>
+      </c>
+      <c r="B26">
         <v>256</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1766.2786000000001</v>
       </c>
-      <c r="D25">
-        <v>83.72</v>
-      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1048576</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>1149.4317000000001</v>
-      </c>
-      <c r="D26">
-        <v>83.74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1048576</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>3213.8092000000001</v>
-      </c>
-      <c r="D27">
-        <v>83.85</v>
+        <v>1149.4317000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1048576</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>4295.1893</v>
-      </c>
-      <c r="D28">
-        <v>83.77</v>
+        <v>3213.8092000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1048576</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>4450.3599000000004</v>
-      </c>
-      <c r="D29">
-        <v>83.85</v>
+        <v>4295.1893</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1048576</v>
       </c>
       <c r="B30">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>4450.3599000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1048576</v>
+      </c>
+      <c r="B31">
         <v>256</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>3612.7894999999999</v>
       </c>
-      <c r="D30">
-        <v>83.77</v>
-      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2097152</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>1212.6190999999999</v>
-      </c>
-      <c r="D31">
-        <v>83.79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2097152</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>3270.7492999999999</v>
-      </c>
-      <c r="D32">
-        <v>83.79</v>
+        <v>1212.6190999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2097152</v>
       </c>
       <c r="B33">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>4087.0596</v>
-      </c>
-      <c r="D33">
-        <v>83.8</v>
+        <v>3270.7492999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2097152</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C34">
-        <v>6194.3292000000001</v>
-      </c>
-      <c r="D34">
-        <v>83.83</v>
+        <v>4087.0596</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2097152</v>
       </c>
       <c r="B35">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>6194.3292000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2097152</v>
+      </c>
+      <c r="B36">
         <v>256</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>6148.4192000000003</v>
-      </c>
-      <c r="D35">
-        <v>83.81</v>
       </c>
     </row>
   </sheetData>

--- a/proj5/results.xlsx
+++ b/proj5/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC587F-F603-4B8E-9600-2F490945458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA04E43-494A-411E-8C7B-B912CE6A7D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{D50E9C5D-2F20-4E6F-B024-A39412A4A2E4}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{D50E9C5D-2F20-4E6F-B024-A39412A4A2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1515,8 +1515,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.88061196034979872"/>
           <c:y val="0.40324587362792652"/>
-          <c:w val="9.0410360123453395E-2"/>
-          <c:h val="0.29008046466149295"/>
+          <c:w val="9.057767564389331E-2"/>
+          <c:h val="0.29173299313199491"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2595,8 +2595,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.8599136178306932"/>
           <c:y val="0.25541330855831718"/>
-          <c:w val="0.12816413687830205"/>
-          <c:h val="0.40611265052609008"/>
+          <c:w val="0.12840132041826635"/>
+          <c:h val="0.40842619038479289"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4682,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545AFA47-BD06-48B5-8883-53838AAE6F03}">
   <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
